--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121619.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121619.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1015,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1267,12 +1267,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2279,12 +2279,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2657,12 +2657,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2955,12 +2955,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3627,12 +3627,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3963,12 +3963,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6121,12 +6121,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6541,12 +6541,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6965,12 +6965,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8115,12 +8115,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8539,12 +8539,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9887,12 +9887,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9929,12 +9929,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10097,12 +10097,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10983,12 +10983,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11151,12 +11151,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11697,12 +11697,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11739,12 +11739,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11865,12 +11865,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11949,12 +11949,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12075,12 +12075,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12117,12 +12117,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12583,12 +12583,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12793,12 +12793,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13093,12 +13093,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13135,12 +13135,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13261,12 +13261,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13979,12 +13979,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14315,12 +14315,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14483,12 +14483,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14525,12 +14525,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14819,12 +14819,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15995,12 +15995,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16625,12 +16625,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16709,12 +16709,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16751,12 +16751,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16793,12 +16793,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18443,12 +18443,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18527,12 +18527,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18569,12 +18569,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18989,12 +18989,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19535,12 +19535,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19577,12 +19577,12 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19619,12 +19619,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19661,12 +19661,12 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
